--- a/misc/GS1 prefixes.xlsx
+++ b/misc/GS1 prefixes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssr\PythonProjects\gs1-cloud\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFF4CE-E4F5-4A26-A0C6-04243519C0CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D836C5C2-F3E8-4FE5-90E7-D74EE472235F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" xr2:uid="{11B8C2EE-9B6B-4541-B703-8BC80F804261}"/>
   </bookViews>
@@ -362,9 +362,6 @@
     <t>760 - 769</t>
   </si>
   <si>
-    <t>GS1 Schweiz, Suisse, Svizzera</t>
-  </si>
-  <si>
     <t>770 - 771</t>
   </si>
   <si>
@@ -2382,6 +2379,9 @@
   </si>
   <si>
     <t>019</t>
+  </si>
+  <si>
+    <t>GS1 Switzerland</t>
   </si>
 </sst>
 </file>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6398D5E-8CF0-4C56-8CAF-F954A7160D53}">
   <dimension ref="A1:D713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="C562" sqref="C562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -2981,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>6</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>6</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>6</v>
@@ -3018,7 +3018,7 @@
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>6</v>
@@ -3031,7 +3031,7 @@
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>6</v>
@@ -3044,7 +3044,7 @@
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>6</v>
@@ -3057,7 +3057,7 @@
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>6</v>
@@ -3070,7 +3070,7 @@
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>6</v>
@@ -3083,7 +3083,7 @@
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>6</v>
@@ -3098,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>6</v>
@@ -3111,7 +3111,7 @@
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>6</v>
@@ -3124,7 +3124,7 @@
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>6</v>
@@ -3137,7 +3137,7 @@
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>6</v>
@@ -3150,7 +3150,7 @@
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>6</v>
@@ -3163,7 +3163,7 @@
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>6</v>
@@ -3176,7 +3176,7 @@
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>6</v>
@@ -3189,7 +3189,7 @@
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>6</v>
@@ -3202,7 +3202,7 @@
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>6</v>
@@ -3217,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>6</v>
@@ -3230,7 +3230,7 @@
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>6</v>
@@ -3243,7 +3243,7 @@
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>6</v>
@@ -3256,7 +3256,7 @@
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>6</v>
@@ -3269,7 +3269,7 @@
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>6</v>
@@ -3282,7 +3282,7 @@
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>6</v>
@@ -3295,7 +3295,7 @@
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>6</v>
@@ -3308,7 +3308,7 @@
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>6</v>
@@ -3321,7 +3321,7 @@
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>6</v>
@@ -3334,7 +3334,7 @@
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>6</v>
@@ -3347,7 +3347,7 @@
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>6</v>
@@ -3360,7 +3360,7 @@
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>6</v>
@@ -3373,7 +3373,7 @@
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>6</v>
@@ -3386,7 +3386,7 @@
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>6</v>
@@ -3399,7 +3399,7 @@
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>6</v>
@@ -3412,7 +3412,7 @@
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>6</v>
@@ -3425,7 +3425,7 @@
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>6</v>
@@ -3438,7 +3438,7 @@
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>6</v>
@@ -3451,7 +3451,7 @@
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>6</v>
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>8</v>
@@ -3479,7 +3479,7 @@
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>8</v>
@@ -3492,7 +3492,7 @@
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>8</v>
@@ -3505,7 +3505,7 @@
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>8</v>
@@ -3518,7 +3518,7 @@
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>8</v>
@@ -3531,7 +3531,7 @@
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>8</v>
@@ -3544,7 +3544,7 @@
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>8</v>
@@ -3557,7 +3557,7 @@
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>8</v>
@@ -3570,7 +3570,7 @@
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>8</v>
@@ -3583,7 +3583,7 @@
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>8</v>
@@ -3598,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>6</v>
@@ -3611,7 +3611,7 @@
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>6</v>
@@ -3624,7 +3624,7 @@
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>6</v>
@@ -3637,7 +3637,7 @@
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>6</v>
@@ -3650,7 +3650,7 @@
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>6</v>
@@ -3663,7 +3663,7 @@
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>6</v>
@@ -3676,7 +3676,7 @@
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>6</v>
@@ -3689,7 +3689,7 @@
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>6</v>
@@ -3702,7 +3702,7 @@
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>6</v>
@@ -3715,7 +3715,7 @@
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>6</v>
@@ -3730,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>11</v>
@@ -3743,7 +3743,7 @@
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>11</v>
@@ -3756,7 +3756,7 @@
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
@@ -3769,7 +3769,7 @@
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>11</v>
@@ -3782,7 +3782,7 @@
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>11</v>
@@ -3795,7 +3795,7 @@
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>11</v>
@@ -3808,7 +3808,7 @@
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
@@ -3821,7 +3821,7 @@
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>11</v>
@@ -3834,7 +3834,7 @@
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>11</v>
@@ -3847,7 +3847,7 @@
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>11</v>
@@ -3862,7 +3862,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>13</v>
@@ -3875,7 +3875,7 @@
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>13</v>
@@ -3888,7 +3888,7 @@
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>13</v>
@@ -3901,7 +3901,7 @@
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>13</v>
@@ -3914,7 +3914,7 @@
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>13</v>
@@ -3927,7 +3927,7 @@
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>13</v>
@@ -3940,7 +3940,7 @@
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>13</v>
@@ -3953,7 +3953,7 @@
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>13</v>
@@ -3966,7 +3966,7 @@
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>13</v>
@@ -3979,7 +3979,7 @@
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>13</v>
@@ -3994,10 +3994,10 @@
         <v>14</v>
       </c>
       <c r="B82" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -4007,10 +4007,10 @@
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
@@ -4020,10 +4020,10 @@
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
@@ -4033,10 +4033,10 @@
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
@@ -4046,10 +4046,10 @@
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
@@ -4059,10 +4059,10 @@
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
@@ -4072,10 +4072,10 @@
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -4085,10 +4085,10 @@
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
@@ -4098,10 +4098,10 @@
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
@@ -4111,10 +4111,10 @@
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
@@ -4124,10 +4124,10 @@
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
@@ -4137,10 +4137,10 @@
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
@@ -4150,10 +4150,10 @@
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
@@ -4163,10 +4163,10 @@
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
@@ -4176,10 +4176,10 @@
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
@@ -4189,10 +4189,10 @@
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
@@ -4202,10 +4202,10 @@
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
@@ -4215,10 +4215,10 @@
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="2"/>
@@ -4228,10 +4228,10 @@
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="2"/>
@@ -4241,10 +4241,10 @@
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="2"/>
@@ -4254,10 +4254,10 @@
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="2"/>
@@ -4267,10 +4267,10 @@
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="2"/>
@@ -4280,10 +4280,10 @@
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="2"/>
@@ -4293,10 +4293,10 @@
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="2"/>
@@ -4306,10 +4306,10 @@
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="2"/>
@@ -4319,10 +4319,10 @@
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="2"/>
@@ -4332,10 +4332,10 @@
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
@@ -4345,10 +4345,10 @@
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="2"/>
@@ -4358,10 +4358,10 @@
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="2"/>
@@ -4371,10 +4371,10 @@
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="2"/>
@@ -4384,10 +4384,10 @@
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
@@ -4397,10 +4397,10 @@
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="2"/>
@@ -4410,10 +4410,10 @@
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="2"/>
@@ -4423,10 +4423,10 @@
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="2"/>
@@ -4436,10 +4436,10 @@
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="2"/>
@@ -4449,10 +4449,10 @@
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="2"/>
@@ -4462,10 +4462,10 @@
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
@@ -4475,10 +4475,10 @@
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="2"/>
@@ -4488,10 +4488,10 @@
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="2"/>
@@ -4501,10 +4501,10 @@
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
@@ -4514,10 +4514,10 @@
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
@@ -4527,10 +4527,10 @@
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="2"/>
@@ -4540,10 +4540,10 @@
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
@@ -4553,10 +4553,10 @@
     <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="2"/>
@@ -4566,10 +4566,10 @@
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
@@ -4579,10 +4579,10 @@
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="2"/>
@@ -4592,10 +4592,10 @@
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="2"/>
@@ -4605,10 +4605,10 @@
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="2"/>
@@ -4618,10 +4618,10 @@
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="2"/>
@@ -4631,10 +4631,10 @@
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="2"/>
@@ -4644,10 +4644,10 @@
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="2"/>
@@ -4657,10 +4657,10 @@
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
@@ -4670,10 +4670,10 @@
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
@@ -4683,10 +4683,10 @@
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
@@ -4696,10 +4696,10 @@
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
@@ -4709,10 +4709,10 @@
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
@@ -4722,10 +4722,10 @@
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
@@ -4735,10 +4735,10 @@
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="2"/>
@@ -4748,10 +4748,10 @@
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
@@ -4761,10 +4761,10 @@
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
@@ -4774,10 +4774,10 @@
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
@@ -4787,10 +4787,10 @@
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" ref="D143:D206" si="3">CONCATENATE("'",B143,"': ","'",C143,"',")</f>
@@ -4800,10 +4800,10 @@
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="3"/>
@@ -4813,10 +4813,10 @@
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="3"/>
@@ -4826,10 +4826,10 @@
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="3"/>
@@ -4839,10 +4839,10 @@
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="3"/>
@@ -4852,10 +4852,10 @@
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="3"/>
@@ -4865,10 +4865,10 @@
     <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="3"/>
@@ -4878,10 +4878,10 @@
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="3"/>
@@ -4891,10 +4891,10 @@
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="3"/>
@@ -4904,10 +4904,10 @@
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="3"/>
@@ -4917,10 +4917,10 @@
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="3"/>
@@ -4930,10 +4930,10 @@
     <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="3"/>
@@ -4943,10 +4943,10 @@
     <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="3"/>
@@ -4956,10 +4956,10 @@
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="3"/>
@@ -4969,10 +4969,10 @@
     <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="3"/>
@@ -4982,10 +4982,10 @@
     <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="3"/>
@@ -4995,10 +4995,10 @@
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="3"/>
@@ -5008,10 +5008,10 @@
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="3"/>
@@ -5021,10 +5021,10 @@
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="3"/>
@@ -5036,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>16</v>
@@ -5049,7 +5049,7 @@
     <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>16</v>
@@ -5062,7 +5062,7 @@
     <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>16</v>
@@ -5075,7 +5075,7 @@
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>16</v>
@@ -5088,7 +5088,7 @@
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>16</v>
@@ -5101,7 +5101,7 @@
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>16</v>
@@ -5114,7 +5114,7 @@
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>16</v>
@@ -5127,7 +5127,7 @@
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>16</v>
@@ -5153,7 +5153,7 @@
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>16</v>
@@ -5166,7 +5166,7 @@
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>16</v>
@@ -5179,7 +5179,7 @@
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>16</v>
@@ -5192,7 +5192,7 @@
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>16</v>
@@ -5205,7 +5205,7 @@
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>16</v>
@@ -5218,7 +5218,7 @@
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>16</v>
@@ -5231,7 +5231,7 @@
     <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>16</v>
@@ -5244,7 +5244,7 @@
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>16</v>
@@ -5257,7 +5257,7 @@
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>16</v>
@@ -5270,7 +5270,7 @@
     <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>16</v>
@@ -5283,7 +5283,7 @@
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>16</v>
@@ -5296,7 +5296,7 @@
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>16</v>
@@ -5309,7 +5309,7 @@
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>16</v>
@@ -5322,7 +5322,7 @@
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>16</v>
@@ -5335,7 +5335,7 @@
     <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>16</v>
@@ -5348,7 +5348,7 @@
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>16</v>
@@ -5361,7 +5361,7 @@
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>16</v>
@@ -5374,7 +5374,7 @@
     <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>16</v>
@@ -5387,7 +5387,7 @@
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>16</v>
@@ -5400,7 +5400,7 @@
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>16</v>
@@ -5413,7 +5413,7 @@
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>16</v>
@@ -5426,7 +5426,7 @@
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>16</v>
@@ -5439,7 +5439,7 @@
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>16</v>
@@ -5452,7 +5452,7 @@
     <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>16</v>
@@ -5465,7 +5465,7 @@
     <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>16</v>
@@ -5478,7 +5478,7 @@
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>16</v>
@@ -5491,7 +5491,7 @@
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>16</v>
@@ -5504,7 +5504,7 @@
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>16</v>
@@ -5517,7 +5517,7 @@
     <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>16</v>
@@ -5530,7 +5530,7 @@
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>16</v>
@@ -5543,7 +5543,7 @@
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>16</v>
@@ -5556,7 +5556,7 @@
     <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>16</v>
@@ -5569,7 +5569,7 @@
     <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>16</v>
@@ -5582,7 +5582,7 @@
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>16</v>
@@ -5595,7 +5595,7 @@
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>16</v>
@@ -5608,7 +5608,7 @@
     <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>16</v>
@@ -5621,7 +5621,7 @@
     <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>16</v>
@@ -5634,7 +5634,7 @@
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>16</v>
@@ -5647,7 +5647,7 @@
     <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>16</v>
@@ -5660,7 +5660,7 @@
     <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>16</v>
@@ -5673,7 +5673,7 @@
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>16</v>
@@ -5686,7 +5686,7 @@
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>16</v>
@@ -5699,7 +5699,7 @@
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>16</v>
@@ -5712,7 +5712,7 @@
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>16</v>
@@ -5725,7 +5725,7 @@
     <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>16</v>
@@ -5738,7 +5738,7 @@
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>16</v>
@@ -5751,7 +5751,7 @@
     <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>16</v>
@@ -5764,7 +5764,7 @@
     <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>16</v>
@@ -5777,7 +5777,7 @@
     <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>16</v>
@@ -5790,7 +5790,7 @@
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>16</v>
@@ -5803,7 +5803,7 @@
     <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>16</v>
@@ -5816,7 +5816,7 @@
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>16</v>
@@ -5829,7 +5829,7 @@
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>16</v>
@@ -5842,7 +5842,7 @@
     <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>16</v>
@@ -5855,7 +5855,7 @@
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>16</v>
@@ -5868,7 +5868,7 @@
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>16</v>
@@ -5881,7 +5881,7 @@
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>16</v>
@@ -5894,7 +5894,7 @@
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>16</v>
@@ -5907,7 +5907,7 @@
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>16</v>
@@ -5920,7 +5920,7 @@
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>16</v>
@@ -5933,7 +5933,7 @@
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>16</v>
@@ -5946,7 +5946,7 @@
     <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>16</v>
@@ -5959,7 +5959,7 @@
     <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>16</v>
@@ -5972,7 +5972,7 @@
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>16</v>
@@ -5985,7 +5985,7 @@
     <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>16</v>
@@ -5998,7 +5998,7 @@
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>16</v>
@@ -6011,7 +6011,7 @@
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>16</v>
@@ -6024,7 +6024,7 @@
     <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>16</v>
@@ -6037,7 +6037,7 @@
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>16</v>
@@ -6050,7 +6050,7 @@
     <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>16</v>
@@ -6063,7 +6063,7 @@
     <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>16</v>
@@ -6076,7 +6076,7 @@
     <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>16</v>
@@ -6089,7 +6089,7 @@
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>16</v>
@@ -6102,7 +6102,7 @@
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>16</v>
@@ -6115,7 +6115,7 @@
     <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>16</v>
@@ -6128,7 +6128,7 @@
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>16</v>
@@ -6141,7 +6141,7 @@
     <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>16</v>
@@ -6154,7 +6154,7 @@
     <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>16</v>
@@ -6167,7 +6167,7 @@
     <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>16</v>
@@ -6180,7 +6180,7 @@
     <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>16</v>
@@ -6193,7 +6193,7 @@
     <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>16</v>
@@ -6206,7 +6206,7 @@
     <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>16</v>
@@ -6219,7 +6219,7 @@
     <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>16</v>
@@ -6232,7 +6232,7 @@
     <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>16</v>
@@ -6245,7 +6245,7 @@
     <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>16</v>
@@ -6258,7 +6258,7 @@
     <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>16</v>
@@ -6271,7 +6271,7 @@
     <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>16</v>
@@ -6284,7 +6284,7 @@
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>16</v>
@@ -6297,7 +6297,7 @@
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>16</v>
@@ -6310,7 +6310,7 @@
     <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>16</v>
@@ -6323,7 +6323,7 @@
     <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>16</v>
@@ -6338,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C262" s="16" t="s">
         <v>18</v>
@@ -6351,7 +6351,7 @@
     <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C263" s="16" t="s">
         <v>18</v>
@@ -6364,7 +6364,7 @@
     <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C264" s="16" t="s">
         <v>18</v>
@@ -6377,7 +6377,7 @@
     <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C265" s="16" t="s">
         <v>18</v>
@@ -6390,7 +6390,7 @@
     <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C266" s="16" t="s">
         <v>18</v>
@@ -6403,7 +6403,7 @@
     <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C267" s="16" t="s">
         <v>18</v>
@@ -6416,7 +6416,7 @@
     <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C268" s="16" t="s">
         <v>18</v>
@@ -6429,7 +6429,7 @@
     <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C269" s="16" t="s">
         <v>18</v>
@@ -6442,7 +6442,7 @@
     <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C270" s="16" t="s">
         <v>18</v>
@@ -6455,7 +6455,7 @@
     <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C271" s="16" t="s">
         <v>18</v>
@@ -6468,7 +6468,7 @@
     <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C272" s="16" t="s">
         <v>18</v>
@@ -6481,7 +6481,7 @@
     <row r="273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C273" s="16" t="s">
         <v>18</v>
@@ -6494,7 +6494,7 @@
     <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>18</v>
@@ -6507,7 +6507,7 @@
     <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C275" s="16" t="s">
         <v>18</v>
@@ -6520,7 +6520,7 @@
     <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C276" s="16" t="s">
         <v>18</v>
@@ -6533,7 +6533,7 @@
     <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C277" s="16" t="s">
         <v>18</v>
@@ -6546,7 +6546,7 @@
     <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>18</v>
@@ -6559,7 +6559,7 @@
     <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C279" s="16" t="s">
         <v>18</v>
@@ -6572,7 +6572,7 @@
     <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C280" s="16" t="s">
         <v>18</v>
@@ -6585,7 +6585,7 @@
     <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C281" s="16" t="s">
         <v>18</v>
@@ -6598,7 +6598,7 @@
     <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C282" s="16" t="s">
         <v>18</v>
@@ -6611,7 +6611,7 @@
     <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C283" s="16" t="s">
         <v>18</v>
@@ -6624,7 +6624,7 @@
     <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C284" s="16" t="s">
         <v>18</v>
@@ -6637,7 +6637,7 @@
     <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C285" s="16" t="s">
         <v>18</v>
@@ -6650,7 +6650,7 @@
     <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C286" s="16" t="s">
         <v>18</v>
@@ -6663,7 +6663,7 @@
     <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C287" s="16" t="s">
         <v>18</v>
@@ -6676,7 +6676,7 @@
     <row r="288" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C288" s="16" t="s">
         <v>18</v>
@@ -6689,7 +6689,7 @@
     <row r="289" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C289" s="16" t="s">
         <v>18</v>
@@ -6702,7 +6702,7 @@
     <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C290" s="16" t="s">
         <v>18</v>
@@ -6715,7 +6715,7 @@
     <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C291" s="16" t="s">
         <v>18</v>
@@ -6728,7 +6728,7 @@
     <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>18</v>
@@ -6741,7 +6741,7 @@
     <row r="293" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C293" s="16" t="s">
         <v>18</v>
@@ -6754,7 +6754,7 @@
     <row r="294" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C294" s="16" t="s">
         <v>18</v>
@@ -6767,7 +6767,7 @@
     <row r="295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C295" s="16" t="s">
         <v>18</v>
@@ -6780,7 +6780,7 @@
     <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C296" s="16" t="s">
         <v>18</v>
@@ -6793,7 +6793,7 @@
     <row r="297" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C297" s="16" t="s">
         <v>18</v>
@@ -6806,7 +6806,7 @@
     <row r="298" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C298" s="16" t="s">
         <v>18</v>
@@ -6819,7 +6819,7 @@
     <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C299" s="16" t="s">
         <v>18</v>
@@ -6832,7 +6832,7 @@
     <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C300" s="16" t="s">
         <v>18</v>
@@ -6845,7 +6845,7 @@
     <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C301" s="16" t="s">
         <v>18</v>
@@ -6858,7 +6858,7 @@
     <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C302" s="16" t="s">
         <v>18</v>
@@ -6871,7 +6871,7 @@
     <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C303" s="16" t="s">
         <v>18</v>
@@ -6884,7 +6884,7 @@
     <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C304" s="16" t="s">
         <v>18</v>
@@ -6897,7 +6897,7 @@
     <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C305" s="16" t="s">
         <v>18</v>
@@ -6910,7 +6910,7 @@
     <row r="306" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C306" s="16" t="s">
         <v>18</v>
@@ -6923,7 +6923,7 @@
     <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C307" s="16" t="s">
         <v>18</v>
@@ -6936,7 +6936,7 @@
     <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C308" s="16" t="s">
         <v>18</v>
@@ -6949,7 +6949,7 @@
     <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C309" s="16" t="s">
         <v>18</v>
@@ -6962,7 +6962,7 @@
     <row r="310" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C310" s="16" t="s">
         <v>18</v>
@@ -6975,7 +6975,7 @@
     <row r="311" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C311" s="16" t="s">
         <v>18</v>
@@ -6988,7 +6988,7 @@
     <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C312" s="16" t="s">
         <v>18</v>
@@ -7001,7 +7001,7 @@
     <row r="313" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C313" s="16" t="s">
         <v>18</v>
@@ -7014,7 +7014,7 @@
     <row r="314" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C314" s="16" t="s">
         <v>18</v>
@@ -7027,7 +7027,7 @@
     <row r="315" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C315" s="16" t="s">
         <v>18</v>
@@ -7040,7 +7040,7 @@
     <row r="316" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C316" s="16" t="s">
         <v>18</v>
@@ -7053,7 +7053,7 @@
     <row r="317" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C317" s="16" t="s">
         <v>18</v>
@@ -7066,7 +7066,7 @@
     <row r="318" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C318" s="16" t="s">
         <v>18</v>
@@ -7079,7 +7079,7 @@
     <row r="319" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C319" s="16" t="s">
         <v>18</v>
@@ -7092,7 +7092,7 @@
     <row r="320" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C320" s="16" t="s">
         <v>18</v>
@@ -7105,7 +7105,7 @@
     <row r="321" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C321" s="16" t="s">
         <v>18</v>
@@ -7118,7 +7118,7 @@
     <row r="322" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C322" s="16" t="s">
         <v>18</v>
@@ -7131,7 +7131,7 @@
     <row r="323" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C323" s="16" t="s">
         <v>18</v>
@@ -7144,7 +7144,7 @@
     <row r="324" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C324" s="16" t="s">
         <v>18</v>
@@ -7157,7 +7157,7 @@
     <row r="325" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C325" s="16" t="s">
         <v>18</v>
@@ -7170,7 +7170,7 @@
     <row r="326" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C326" s="16" t="s">
         <v>18</v>
@@ -7183,7 +7183,7 @@
     <row r="327" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C327" s="16" t="s">
         <v>18</v>
@@ -7196,7 +7196,7 @@
     <row r="328" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C328" s="16" t="s">
         <v>18</v>
@@ -7209,7 +7209,7 @@
     <row r="329" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C329" s="16" t="s">
         <v>18</v>
@@ -7222,7 +7222,7 @@
     <row r="330" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C330" s="16" t="s">
         <v>18</v>
@@ -7235,7 +7235,7 @@
     <row r="331" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C331" s="16" t="s">
         <v>18</v>
@@ -7248,7 +7248,7 @@
     <row r="332" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C332" s="16" t="s">
         <v>18</v>
@@ -7261,7 +7261,7 @@
     <row r="333" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C333" s="16" t="s">
         <v>18</v>
@@ -7274,7 +7274,7 @@
     <row r="334" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C334" s="16" t="s">
         <v>18</v>
@@ -7287,7 +7287,7 @@
     <row r="335" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C335" s="16" t="s">
         <v>18</v>
@@ -7300,7 +7300,7 @@
     <row r="336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C336" s="16" t="s">
         <v>18</v>
@@ -7313,7 +7313,7 @@
     <row r="337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C337" s="16" t="s">
         <v>18</v>
@@ -7326,7 +7326,7 @@
     <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C338" s="16" t="s">
         <v>18</v>
@@ -7339,7 +7339,7 @@
     <row r="339" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C339" s="16" t="s">
         <v>18</v>
@@ -7352,7 +7352,7 @@
     <row r="340" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C340" s="16" t="s">
         <v>18</v>
@@ -7365,7 +7365,7 @@
     <row r="341" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C341" s="16" t="s">
         <v>18</v>
@@ -7455,7 +7455,7 @@
         <v>24</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>25</v>
@@ -7468,7 +7468,7 @@
     <row r="348" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>25</v>
@@ -7481,7 +7481,7 @@
     <row r="349" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>25</v>
@@ -7494,7 +7494,7 @@
     <row r="350" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>25</v>
@@ -7507,7 +7507,7 @@
     <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>25</v>
@@ -7520,7 +7520,7 @@
     <row r="352" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>25</v>
@@ -7533,7 +7533,7 @@
     <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>25</v>
@@ -7546,7 +7546,7 @@
     <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>25</v>
@@ -7559,7 +7559,7 @@
     <row r="355" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>25</v>
@@ -7572,7 +7572,7 @@
     <row r="356" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>25</v>
@@ -7585,7 +7585,7 @@
     <row r="357" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>25</v>
@@ -7598,7 +7598,7 @@
     <row r="358" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>25</v>
@@ -7611,7 +7611,7 @@
     <row r="359" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>25</v>
@@ -7624,7 +7624,7 @@
     <row r="360" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>25</v>
@@ -7637,7 +7637,7 @@
     <row r="361" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>25</v>
@@ -7650,7 +7650,7 @@
     <row r="362" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>25</v>
@@ -7663,7 +7663,7 @@
     <row r="363" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>25</v>
@@ -7676,7 +7676,7 @@
     <row r="364" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>25</v>
@@ -7689,7 +7689,7 @@
     <row r="365" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>25</v>
@@ -7702,7 +7702,7 @@
     <row r="366" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>25</v>
@@ -7715,7 +7715,7 @@
     <row r="367" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>25</v>
@@ -7728,7 +7728,7 @@
     <row r="368" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>25</v>
@@ -7741,7 +7741,7 @@
     <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -7754,7 +7754,7 @@
     <row r="370" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>25</v>
@@ -7767,7 +7767,7 @@
     <row r="371" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>25</v>
@@ -7780,7 +7780,7 @@
     <row r="372" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>25</v>
@@ -7793,7 +7793,7 @@
     <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>25</v>
@@ -7806,7 +7806,7 @@
     <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>25</v>
@@ -7819,7 +7819,7 @@
     <row r="375" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>25</v>
@@ -7832,7 +7832,7 @@
     <row r="376" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>25</v>
@@ -7845,7 +7845,7 @@
     <row r="377" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>25</v>
@@ -7858,7 +7858,7 @@
     <row r="378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>25</v>
@@ -7871,7 +7871,7 @@
     <row r="379" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>25</v>
@@ -7884,7 +7884,7 @@
     <row r="380" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>25</v>
@@ -7897,7 +7897,7 @@
     <row r="381" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>25</v>
@@ -7910,7 +7910,7 @@
     <row r="382" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>25</v>
@@ -7923,7 +7923,7 @@
     <row r="383" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -7936,7 +7936,7 @@
     <row r="384" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3"/>
       <c r="B384" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>25</v>
@@ -7949,7 +7949,7 @@
     <row r="385" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3"/>
       <c r="B385" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>25</v>
@@ -7962,7 +7962,7 @@
     <row r="386" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -7975,7 +7975,7 @@
     <row r="387" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
       <c r="B387" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>25</v>
@@ -7990,7 +7990,7 @@
         <v>26</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>27</v>
@@ -8003,7 +8003,7 @@
     <row r="389" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>27</v>
@@ -8016,7 +8016,7 @@
     <row r="390" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>27</v>
@@ -8029,7 +8029,7 @@
     <row r="391" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>27</v>
@@ -8042,7 +8042,7 @@
     <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="B392" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>27</v>
@@ -8055,7 +8055,7 @@
     <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>27</v>
@@ -8068,7 +8068,7 @@
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
       <c r="B394" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>27</v>
@@ -8081,7 +8081,7 @@
     <row r="395" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>27</v>
@@ -8094,7 +8094,7 @@
     <row r="396" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>27</v>
@@ -8107,7 +8107,7 @@
     <row r="397" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>27</v>
@@ -8120,7 +8120,7 @@
     <row r="398" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="B398" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>27</v>
@@ -8133,7 +8133,7 @@
     <row r="399" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>27</v>
@@ -8146,7 +8146,7 @@
     <row r="400" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C400" s="8" t="s">
         <v>27</v>
@@ -8159,7 +8159,7 @@
     <row r="401" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C401" s="8" t="s">
         <v>27</v>
@@ -8172,7 +8172,7 @@
     <row r="402" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="B402" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>27</v>
@@ -8185,7 +8185,7 @@
     <row r="403" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>27</v>
@@ -8198,7 +8198,7 @@
     <row r="404" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="B404" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>27</v>
@@ -8211,7 +8211,7 @@
     <row r="405" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>27</v>
@@ -8224,7 +8224,7 @@
     <row r="406" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="B406" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>27</v>
@@ -8237,7 +8237,7 @@
     <row r="407" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>27</v>
@@ -8252,7 +8252,7 @@
         <v>28</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>29</v>
@@ -8265,7 +8265,7 @@
     <row r="409" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>29</v>
@@ -8278,7 +8278,7 @@
     <row r="410" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
       <c r="B410" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>29</v>
@@ -8291,7 +8291,7 @@
     <row r="411" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>29</v>
@@ -8304,7 +8304,7 @@
     <row r="412" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3"/>
       <c r="B412" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>29</v>
@@ -8317,7 +8317,7 @@
     <row r="413" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>29</v>
@@ -8330,7 +8330,7 @@
     <row r="414" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3"/>
       <c r="B414" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>29</v>
@@ -8343,7 +8343,7 @@
     <row r="415" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>29</v>
@@ -8356,7 +8356,7 @@
     <row r="416" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3"/>
       <c r="B416" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>29</v>
@@ -8369,7 +8369,7 @@
     <row r="417" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3"/>
       <c r="B417" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>29</v>
@@ -8654,7 +8654,7 @@
         <v>48</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C436" s="8" t="s">
         <v>49</v>
@@ -8667,7 +8667,7 @@
     <row r="437" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C437" s="8" t="s">
         <v>49</v>
@@ -8680,7 +8680,7 @@
     <row r="438" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="B438" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C438" s="8" t="s">
         <v>49</v>
@@ -8693,7 +8693,7 @@
     <row r="439" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C439" s="8" t="s">
         <v>49</v>
@@ -8706,7 +8706,7 @@
     <row r="440" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="B440" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C440" s="8" t="s">
         <v>49</v>
@@ -8719,7 +8719,7 @@
     <row r="441" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C441" s="8" t="s">
         <v>49</v>
@@ -8732,7 +8732,7 @@
     <row r="442" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C442" s="8" t="s">
         <v>49</v>
@@ -8745,7 +8745,7 @@
     <row r="443" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>49</v>
@@ -8758,7 +8758,7 @@
     <row r="444" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="B444" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>49</v>
@@ -8771,7 +8771,7 @@
     <row r="445" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C445" s="8" t="s">
         <v>49</v>
@@ -8786,7 +8786,7 @@
         <v>50</v>
       </c>
       <c r="B446" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>51</v>
@@ -8799,7 +8799,7 @@
     <row r="447" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>51</v>
@@ -8904,7 +8904,7 @@
         <v>58</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>59</v>
@@ -8917,7 +8917,7 @@
     <row r="455" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5"/>
       <c r="B455" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>59</v>
@@ -8930,7 +8930,7 @@
     <row r="456" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5"/>
       <c r="B456" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C456" s="8" t="s">
         <v>59</v>
@@ -8943,7 +8943,7 @@
     <row r="457" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5"/>
       <c r="B457" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>59</v>
@@ -8956,7 +8956,7 @@
     <row r="458" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5"/>
       <c r="B458" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>59</v>
@@ -8969,7 +8969,7 @@
     <row r="459" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5"/>
       <c r="B459" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>59</v>
@@ -8982,7 +8982,7 @@
     <row r="460" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5"/>
       <c r="B460" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C460" s="8" t="s">
         <v>59</v>
@@ -8995,7 +8995,7 @@
     <row r="461" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5"/>
       <c r="B461" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C461" s="8" t="s">
         <v>59</v>
@@ -9008,7 +9008,7 @@
     <row r="462" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5"/>
       <c r="B462" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>59</v>
@@ -9021,7 +9021,7 @@
     <row r="463" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5"/>
       <c r="B463" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>59</v>
@@ -9066,7 +9066,7 @@
         <v>62</v>
       </c>
       <c r="B466" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>63</v>
@@ -9079,7 +9079,7 @@
     <row r="467" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3"/>
       <c r="B467" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>63</v>
@@ -9092,7 +9092,7 @@
     <row r="468" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3"/>
       <c r="B468" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>63</v>
@@ -9105,7 +9105,7 @@
     <row r="469" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3"/>
       <c r="B469" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>63</v>
@@ -9118,7 +9118,7 @@
     <row r="470" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>63</v>
@@ -9131,7 +9131,7 @@
     <row r="471" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3"/>
       <c r="B471" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>63</v>
@@ -9144,7 +9144,7 @@
     <row r="472" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>63</v>
@@ -9157,7 +9157,7 @@
     <row r="473" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3"/>
       <c r="B473" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>63</v>
@@ -9170,7 +9170,7 @@
     <row r="474" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>63</v>
@@ -9183,7 +9183,7 @@
     <row r="475" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3"/>
       <c r="B475" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>63</v>
@@ -9243,7 +9243,7 @@
         <v>67</v>
       </c>
       <c r="B479" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>68</v>
@@ -9256,7 +9256,7 @@
     <row r="480" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>68</v>
@@ -9571,7 +9571,7 @@
         <v>89</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C501" s="8" t="s">
         <v>90</v>
@@ -9584,7 +9584,7 @@
     <row r="502" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5"/>
       <c r="B502" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C502" s="8" t="s">
         <v>90</v>
@@ -9597,7 +9597,7 @@
     <row r="503" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5"/>
       <c r="B503" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>90</v>
@@ -9610,7 +9610,7 @@
     <row r="504" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5"/>
       <c r="B504" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C504" s="8" t="s">
         <v>90</v>
@@ -9623,7 +9623,7 @@
     <row r="505" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5"/>
       <c r="B505" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C505" s="8" t="s">
         <v>90</v>
@@ -9636,7 +9636,7 @@
     <row r="506" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5"/>
       <c r="B506" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C506" s="8" t="s">
         <v>90</v>
@@ -9649,7 +9649,7 @@
     <row r="507" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5"/>
       <c r="B507" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C507" s="8" t="s">
         <v>90</v>
@@ -9662,7 +9662,7 @@
     <row r="508" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5"/>
       <c r="B508" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C508" s="8" t="s">
         <v>90</v>
@@ -9675,7 +9675,7 @@
     <row r="509" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="5"/>
       <c r="B509" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C509" s="8" t="s">
         <v>90</v>
@@ -9688,7 +9688,7 @@
     <row r="510" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5"/>
       <c r="B510" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>90</v>
@@ -9703,7 +9703,7 @@
         <v>91</v>
       </c>
       <c r="B511" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>92</v>
@@ -9716,7 +9716,7 @@
     <row r="512" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3"/>
       <c r="B512" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>92</v>
@@ -9729,7 +9729,7 @@
     <row r="513" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>92</v>
@@ -9742,7 +9742,7 @@
     <row r="514" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3"/>
       <c r="B514" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>92</v>
@@ -9755,7 +9755,7 @@
     <row r="515" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3"/>
       <c r="B515" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C515" s="4" t="s">
         <v>92</v>
@@ -9768,7 +9768,7 @@
     <row r="516" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3"/>
       <c r="B516" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>92</v>
@@ -9781,7 +9781,7 @@
     <row r="517" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3"/>
       <c r="B517" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>92</v>
@@ -9794,7 +9794,7 @@
     <row r="518" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>92</v>
@@ -9807,7 +9807,7 @@
     <row r="519" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>92</v>
@@ -9820,7 +9820,7 @@
     <row r="520" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>92</v>
@@ -9835,7 +9835,7 @@
         <v>93</v>
       </c>
       <c r="B521" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C521" s="8" t="s">
         <v>94</v>
@@ -9848,7 +9848,7 @@
     <row r="522" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5"/>
       <c r="B522" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C522" s="8" t="s">
         <v>94</v>
@@ -9861,7 +9861,7 @@
     <row r="523" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5"/>
       <c r="B523" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C523" s="8" t="s">
         <v>94</v>
@@ -9874,7 +9874,7 @@
     <row r="524" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5"/>
       <c r="B524" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C524" s="8" t="s">
         <v>94</v>
@@ -9887,7 +9887,7 @@
     <row r="525" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5"/>
       <c r="B525" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C525" s="8" t="s">
         <v>94</v>
@@ -9900,7 +9900,7 @@
     <row r="526" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5"/>
       <c r="B526" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C526" s="8" t="s">
         <v>94</v>
@@ -9913,7 +9913,7 @@
     <row r="527" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5"/>
       <c r="B527" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C527" s="8" t="s">
         <v>94</v>
@@ -9926,7 +9926,7 @@
     <row r="528" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5"/>
       <c r="B528" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C528" s="8" t="s">
         <v>94</v>
@@ -9939,7 +9939,7 @@
     <row r="529" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5"/>
       <c r="B529" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C529" s="8" t="s">
         <v>94</v>
@@ -9952,7 +9952,7 @@
     <row r="530" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5"/>
       <c r="B530" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C530" s="8" t="s">
         <v>94</v>
@@ -9982,7 +9982,7 @@
         <v>96</v>
       </c>
       <c r="B532" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C532" s="8" t="s">
         <v>97</v>
@@ -9995,7 +9995,7 @@
     <row r="533" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5"/>
       <c r="B533" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C533" s="8" t="s">
         <v>97</v>
@@ -10008,7 +10008,7 @@
     <row r="534" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5"/>
       <c r="B534" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C534" s="8" t="s">
         <v>97</v>
@@ -10021,7 +10021,7 @@
     <row r="535" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5"/>
       <c r="B535" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C535" s="8" t="s">
         <v>97</v>
@@ -10034,7 +10034,7 @@
     <row r="536" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5"/>
       <c r="B536" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C536" s="8" t="s">
         <v>97</v>
@@ -10047,7 +10047,7 @@
     <row r="537" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5"/>
       <c r="B537" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C537" s="8" t="s">
         <v>97</v>
@@ -10060,7 +10060,7 @@
     <row r="538" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5"/>
       <c r="B538" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C538" s="8" t="s">
         <v>97</v>
@@ -10073,7 +10073,7 @@
     <row r="539" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5"/>
       <c r="B539" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C539" s="8" t="s">
         <v>97</v>
@@ -10086,7 +10086,7 @@
     <row r="540" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5"/>
       <c r="B540" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C540" s="8" t="s">
         <v>97</v>
@@ -10099,7 +10099,7 @@
     <row r="541" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5"/>
       <c r="B541" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C541" s="8" t="s">
         <v>97</v>
@@ -10234,7 +10234,7 @@
         <v>106</v>
       </c>
       <c r="B550" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>107</v>
@@ -10247,7 +10247,7 @@
     <row r="551" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3"/>
       <c r="B551" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>107</v>
@@ -10277,142 +10277,142 @@
         <v>109</v>
       </c>
       <c r="B553" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D553" t="str">
         <f t="shared" si="9"/>
-        <v>'760': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'760': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3"/>
       <c r="B554" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D554" t="str">
         <f t="shared" si="9"/>
-        <v>'761': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'761': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3"/>
       <c r="B555" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D555" t="str">
         <f t="shared" si="9"/>
-        <v>'762': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'762': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D556" t="str">
         <f t="shared" si="9"/>
-        <v>'763': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'763': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3"/>
       <c r="B557" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D557" t="str">
         <f t="shared" si="9"/>
-        <v>'764': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'764': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3"/>
       <c r="B558" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D558" t="str">
         <f t="shared" si="9"/>
-        <v>'765': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'765': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D559" t="str">
         <f t="shared" si="9"/>
-        <v>'766': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'766': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3"/>
       <c r="B560" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D560" t="str">
         <f t="shared" si="9"/>
-        <v>'767': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'767': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="3"/>
       <c r="B561" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D561" t="str">
         <f t="shared" si="9"/>
-        <v>'768': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'768': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="3"/>
       <c r="B562" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>110</v>
+        <v>775</v>
       </c>
       <c r="D562" t="str">
         <f t="shared" si="9"/>
-        <v>'769': 'GS1 Schweiz, Suisse, Svizzera',</v>
+        <v>'769': 'GS1 Switzerland',</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B563" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C563" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B563" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="C563" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="D563" t="str">
         <f t="shared" si="9"/>
@@ -10422,10 +10422,10 @@
     <row r="564" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5"/>
       <c r="B564" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C564" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D564" t="str">
         <f t="shared" si="9"/>
@@ -10440,7 +10440,7 @@
         <v>773</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D565" t="str">
         <f t="shared" si="9"/>
@@ -10455,7 +10455,7 @@
         <v>775</v>
       </c>
       <c r="C566" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D566" t="str">
         <f t="shared" si="9"/>
@@ -10470,7 +10470,7 @@
         <v>777</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D567" t="str">
         <f t="shared" si="9"/>
@@ -10479,13 +10479,13 @@
     </row>
     <row r="568" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B568" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="C568" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B568" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C568" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D568" t="str">
         <f t="shared" si="9"/>
@@ -10495,10 +10495,10 @@
     <row r="569" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5"/>
       <c r="B569" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D569" t="str">
         <f t="shared" si="9"/>
@@ -10513,7 +10513,7 @@
         <v>780</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D570" t="str">
         <f t="shared" si="9"/>
@@ -10528,7 +10528,7 @@
         <v>784</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D571" t="str">
         <f t="shared" si="9"/>
@@ -10543,7 +10543,7 @@
         <v>786</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D572" t="str">
         <f t="shared" si="9"/>
@@ -10552,13 +10552,13 @@
     </row>
     <row r="573" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B573" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="C573" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B573" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="C573" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D573" t="str">
         <f t="shared" si="9"/>
@@ -10568,10 +10568,10 @@
     <row r="574" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5"/>
       <c r="B574" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D574" t="str">
         <f t="shared" si="9"/>
@@ -10580,13 +10580,13 @@
     </row>
     <row r="575" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B575" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D575" t="str">
         <f t="shared" si="9"/>
@@ -10596,10 +10596,10 @@
     <row r="576" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="3"/>
       <c r="B576" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D576" t="str">
         <f t="shared" si="9"/>
@@ -10609,10 +10609,10 @@
     <row r="577" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="3"/>
       <c r="B577" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D577" t="str">
         <f t="shared" si="9"/>
@@ -10622,10 +10622,10 @@
     <row r="578" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="3"/>
       <c r="B578" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D578" t="str">
         <f t="shared" si="9"/>
@@ -10635,10 +10635,10 @@
     <row r="579" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D579" t="str">
         <f t="shared" si="9"/>
@@ -10648,10 +10648,10 @@
     <row r="580" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="3"/>
       <c r="B580" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D580" t="str">
         <f t="shared" si="9"/>
@@ -10661,10 +10661,10 @@
     <row r="581" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="3"/>
       <c r="B581" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D581" t="str">
         <f t="shared" si="9"/>
@@ -10674,10 +10674,10 @@
     <row r="582" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="3"/>
       <c r="B582" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D582" t="str">
         <f t="shared" si="9"/>
@@ -10687,10 +10687,10 @@
     <row r="583" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="3"/>
       <c r="B583" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D583" t="str">
         <f t="shared" si="9"/>
@@ -10700,10 +10700,10 @@
     <row r="584" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="3"/>
       <c r="B584" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D584" t="str">
         <f t="shared" ref="D584:D647" si="10">CONCATENATE("'",B584,"': ","'",C584,"',")</f>
@@ -10713,10 +10713,10 @@
     <row r="585" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D585" t="str">
         <f t="shared" si="10"/>
@@ -10726,10 +10726,10 @@
     <row r="586" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="3"/>
       <c r="B586" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D586" t="str">
         <f t="shared" si="10"/>
@@ -10739,10 +10739,10 @@
     <row r="587" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="3"/>
       <c r="B587" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D587" t="str">
         <f t="shared" si="10"/>
@@ -10752,10 +10752,10 @@
     <row r="588" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="3"/>
       <c r="B588" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D588" t="str">
         <f t="shared" si="10"/>
@@ -10765,10 +10765,10 @@
     <row r="589" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3"/>
       <c r="B589" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D589" t="str">
         <f t="shared" si="10"/>
@@ -10778,10 +10778,10 @@
     <row r="590" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="3"/>
       <c r="B590" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D590" t="str">
         <f t="shared" si="10"/>
@@ -10791,10 +10791,10 @@
     <row r="591" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D591" t="str">
         <f t="shared" si="10"/>
@@ -10804,10 +10804,10 @@
     <row r="592" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="3"/>
       <c r="B592" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D592" t="str">
         <f t="shared" si="10"/>
@@ -10817,10 +10817,10 @@
     <row r="593" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="3"/>
       <c r="B593" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D593" t="str">
         <f t="shared" si="10"/>
@@ -10830,10 +10830,10 @@
     <row r="594" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="3"/>
       <c r="B594" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D594" t="str">
         <f t="shared" si="10"/>
@@ -10843,10 +10843,10 @@
     <row r="595" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="3"/>
       <c r="B595" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D595" t="str">
         <f t="shared" si="10"/>
@@ -10856,10 +10856,10 @@
     <row r="596" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="3"/>
       <c r="B596" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D596" t="str">
         <f t="shared" si="10"/>
@@ -10869,10 +10869,10 @@
     <row r="597" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="3"/>
       <c r="B597" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D597" t="str">
         <f t="shared" si="10"/>
@@ -10882,10 +10882,10 @@
     <row r="598" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="3"/>
       <c r="B598" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D598" t="str">
         <f t="shared" si="10"/>
@@ -10895,10 +10895,10 @@
     <row r="599" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="3"/>
       <c r="B599" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D599" t="str">
         <f t="shared" si="10"/>
@@ -10908,10 +10908,10 @@
     <row r="600" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="3"/>
       <c r="B600" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D600" t="str">
         <f t="shared" si="10"/>
@@ -10921,10 +10921,10 @@
     <row r="601" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D601" t="str">
         <f t="shared" si="10"/>
@@ -10934,10 +10934,10 @@
     <row r="602" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="3"/>
       <c r="B602" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D602" t="str">
         <f t="shared" si="10"/>
@@ -10947,10 +10947,10 @@
     <row r="603" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="3"/>
       <c r="B603" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D603" t="str">
         <f t="shared" si="10"/>
@@ -10960,10 +10960,10 @@
     <row r="604" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="3"/>
       <c r="B604" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D604" t="str">
         <f t="shared" si="10"/>
@@ -10973,10 +10973,10 @@
     <row r="605" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="3"/>
       <c r="B605" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D605" t="str">
         <f t="shared" si="10"/>
@@ -10986,10 +10986,10 @@
     <row r="606" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3"/>
       <c r="B606" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D606" t="str">
         <f t="shared" si="10"/>
@@ -10999,10 +10999,10 @@
     <row r="607" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="3"/>
       <c r="B607" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D607" t="str">
         <f t="shared" si="10"/>
@@ -11012,10 +11012,10 @@
     <row r="608" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="3"/>
       <c r="B608" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D608" t="str">
         <f t="shared" si="10"/>
@@ -11025,10 +11025,10 @@
     <row r="609" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3"/>
       <c r="B609" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D609" t="str">
         <f t="shared" si="10"/>
@@ -11038,10 +11038,10 @@
     <row r="610" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="3"/>
       <c r="B610" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D610" t="str">
         <f t="shared" si="10"/>
@@ -11051,10 +11051,10 @@
     <row r="611" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D611" t="str">
         <f t="shared" si="10"/>
@@ -11064,10 +11064,10 @@
     <row r="612" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="3"/>
       <c r="B612" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D612" t="str">
         <f t="shared" si="10"/>
@@ -11077,10 +11077,10 @@
     <row r="613" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D613" t="str">
         <f t="shared" si="10"/>
@@ -11090,10 +11090,10 @@
     <row r="614" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="3"/>
       <c r="B614" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D614" t="str">
         <f t="shared" si="10"/>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="615" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B615" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C615" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D615" t="str">
         <f t="shared" si="10"/>
@@ -11118,10 +11118,10 @@
     <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5"/>
       <c r="B616" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D616" t="str">
         <f t="shared" si="10"/>
@@ -11131,10 +11131,10 @@
     <row r="617" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5"/>
       <c r="B617" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D617" t="str">
         <f t="shared" si="10"/>
@@ -11144,10 +11144,10 @@
     <row r="618" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5"/>
       <c r="B618" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C618" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D618" t="str">
         <f t="shared" si="10"/>
@@ -11157,10 +11157,10 @@
     <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5"/>
       <c r="B619" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C619" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D619" t="str">
         <f t="shared" si="10"/>
@@ -11170,10 +11170,10 @@
     <row r="620" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="5"/>
       <c r="B620" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D620" t="str">
         <f t="shared" si="10"/>
@@ -11183,10 +11183,10 @@
     <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5"/>
       <c r="B621" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D621" t="str">
         <f t="shared" si="10"/>
@@ -11196,10 +11196,10 @@
     <row r="622" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5"/>
       <c r="B622" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D622" t="str">
         <f t="shared" si="10"/>
@@ -11209,10 +11209,10 @@
     <row r="623" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5"/>
       <c r="B623" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D623" t="str">
         <f t="shared" si="10"/>
@@ -11222,10 +11222,10 @@
     <row r="624" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5"/>
       <c r="B624" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D624" t="str">
         <f t="shared" si="10"/>
@@ -11240,7 +11240,7 @@
         <v>850</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D625" t="str">
         <f t="shared" si="10"/>
@@ -11255,7 +11255,7 @@
         <v>858</v>
       </c>
       <c r="C626" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D626" t="str">
         <f t="shared" si="10"/>
@@ -11270,7 +11270,7 @@
         <v>859</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D627" t="str">
         <f t="shared" si="10"/>
@@ -11285,7 +11285,7 @@
         <v>860</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D628" t="str">
         <f t="shared" si="10"/>
@@ -11300,7 +11300,7 @@
         <v>865</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D629" t="str">
         <f t="shared" si="10"/>
@@ -11315,7 +11315,7 @@
         <v>867</v>
       </c>
       <c r="C630" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D630" t="str">
         <f t="shared" si="10"/>
@@ -11324,13 +11324,13 @@
     </row>
     <row r="631" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B631" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="C631" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B631" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="C631" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D631" t="str">
         <f t="shared" si="10"/>
@@ -11340,10 +11340,10 @@
     <row r="632" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="3"/>
       <c r="B632" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D632" t="str">
         <f t="shared" si="10"/>
@@ -11352,13 +11352,13 @@
     </row>
     <row r="633" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B633" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C633" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B633" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C633" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D633" t="str">
         <f t="shared" si="10"/>
@@ -11368,10 +11368,10 @@
     <row r="634" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="5"/>
       <c r="B634" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C634" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D634" t="str">
         <f t="shared" si="10"/>
@@ -11381,10 +11381,10 @@
     <row r="635" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5"/>
       <c r="B635" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C635" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D635" t="str">
         <f t="shared" si="10"/>
@@ -11394,10 +11394,10 @@
     <row r="636" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="5"/>
       <c r="B636" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C636" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D636" t="str">
         <f t="shared" si="10"/>
@@ -11407,10 +11407,10 @@
     <row r="637" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5"/>
       <c r="B637" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C637" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D637" t="str">
         <f t="shared" si="10"/>
@@ -11420,10 +11420,10 @@
     <row r="638" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="5"/>
       <c r="B638" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C638" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D638" t="str">
         <f t="shared" si="10"/>
@@ -11433,10 +11433,10 @@
     <row r="639" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="B639" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C639" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D639" t="str">
         <f t="shared" si="10"/>
@@ -11446,10 +11446,10 @@
     <row r="640" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="5"/>
       <c r="B640" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C640" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D640" t="str">
         <f t="shared" si="10"/>
@@ -11459,10 +11459,10 @@
     <row r="641" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5"/>
       <c r="B641" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C641" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D641" t="str">
         <f t="shared" si="10"/>
@@ -11472,10 +11472,10 @@
     <row r="642" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="5"/>
       <c r="B642" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C642" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D642" t="str">
         <f t="shared" si="10"/>
@@ -11490,7 +11490,7 @@
         <v>880</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D643" t="str">
         <f t="shared" si="10"/>
@@ -11505,7 +11505,7 @@
         <v>884</v>
       </c>
       <c r="C644" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D644" t="str">
         <f t="shared" si="10"/>
@@ -11520,7 +11520,7 @@
         <v>885</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D645" t="str">
         <f t="shared" si="10"/>
@@ -11535,7 +11535,7 @@
         <v>888</v>
       </c>
       <c r="C646" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D646" t="str">
         <f t="shared" si="10"/>
@@ -11550,7 +11550,7 @@
         <v>890</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D647" t="str">
         <f t="shared" si="10"/>
@@ -11565,7 +11565,7 @@
         <v>893</v>
       </c>
       <c r="C648" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D648" t="str">
         <f t="shared" ref="D648:D711" si="11">CONCATENATE("'",B648,"': ","'",C648,"',")</f>
@@ -11580,7 +11580,7 @@
         <v>896</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D649" t="str">
         <f t="shared" si="11"/>
@@ -11595,7 +11595,7 @@
         <v>899</v>
       </c>
       <c r="C650" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D650" t="str">
         <f t="shared" si="11"/>
@@ -11604,13 +11604,13 @@
     </row>
     <row r="651" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B651" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C651" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B651" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="C651" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D651" t="str">
         <f t="shared" si="11"/>
@@ -11620,10 +11620,10 @@
     <row r="652" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="3"/>
       <c r="B652" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D652" t="str">
         <f t="shared" si="11"/>
@@ -11633,10 +11633,10 @@
     <row r="653" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="3"/>
       <c r="B653" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D653" t="str">
         <f t="shared" si="11"/>
@@ -11646,10 +11646,10 @@
     <row r="654" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="3"/>
       <c r="B654" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D654" t="str">
         <f t="shared" si="11"/>
@@ -11659,10 +11659,10 @@
     <row r="655" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D655" t="str">
         <f t="shared" si="11"/>
@@ -11672,10 +11672,10 @@
     <row r="656" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D656" t="str">
         <f t="shared" si="11"/>
@@ -11685,10 +11685,10 @@
     <row r="657" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D657" t="str">
         <f t="shared" si="11"/>
@@ -11698,10 +11698,10 @@
     <row r="658" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D658" t="str">
         <f t="shared" si="11"/>
@@ -11711,10 +11711,10 @@
     <row r="659" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="3"/>
       <c r="B659" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D659" t="str">
         <f t="shared" si="11"/>
@@ -11724,10 +11724,10 @@
     <row r="660" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="3"/>
       <c r="B660" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D660" t="str">
         <f t="shared" si="11"/>
@@ -11737,10 +11737,10 @@
     <row r="661" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D661" t="str">
         <f t="shared" si="11"/>
@@ -11750,10 +11750,10 @@
     <row r="662" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="3"/>
       <c r="B662" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D662" t="str">
         <f t="shared" si="11"/>
@@ -11763,10 +11763,10 @@
     <row r="663" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3"/>
       <c r="B663" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D663" t="str">
         <f t="shared" si="11"/>
@@ -11776,10 +11776,10 @@
     <row r="664" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D664" t="str">
         <f t="shared" si="11"/>
@@ -11789,10 +11789,10 @@
     <row r="665" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D665" t="str">
         <f t="shared" si="11"/>
@@ -11802,10 +11802,10 @@
     <row r="666" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
       <c r="B666" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D666" t="str">
         <f t="shared" si="11"/>
@@ -11815,10 +11815,10 @@
     <row r="667" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D667" t="str">
         <f t="shared" si="11"/>
@@ -11828,10 +11828,10 @@
     <row r="668" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D668" t="str">
         <f t="shared" si="11"/>
@@ -11841,10 +11841,10 @@
     <row r="669" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3"/>
       <c r="B669" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D669" t="str">
         <f t="shared" si="11"/>
@@ -11854,10 +11854,10 @@
     <row r="670" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D670" t="str">
         <f t="shared" si="11"/>
@@ -11866,13 +11866,13 @@
     </row>
     <row r="671" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B671" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C671" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B671" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="C671" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D671" t="str">
         <f t="shared" si="11"/>
@@ -11882,10 +11882,10 @@
     <row r="672" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="5"/>
       <c r="B672" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C672" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D672" t="str">
         <f t="shared" si="11"/>
@@ -11895,10 +11895,10 @@
     <row r="673" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5"/>
       <c r="B673" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C673" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D673" t="str">
         <f t="shared" si="11"/>
@@ -11908,10 +11908,10 @@
     <row r="674" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="5"/>
       <c r="B674" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C674" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D674" t="str">
         <f t="shared" si="11"/>
@@ -11921,10 +11921,10 @@
     <row r="675" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5"/>
       <c r="B675" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C675" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D675" t="str">
         <f t="shared" si="11"/>
@@ -11934,10 +11934,10 @@
     <row r="676" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="5"/>
       <c r="B676" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C676" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D676" t="str">
         <f t="shared" si="11"/>
@@ -11947,10 +11947,10 @@
     <row r="677" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5"/>
       <c r="B677" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C677" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D677" t="str">
         <f t="shared" si="11"/>
@@ -11960,10 +11960,10 @@
     <row r="678" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="5"/>
       <c r="B678" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C678" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D678" t="str">
         <f t="shared" si="11"/>
@@ -11973,10 +11973,10 @@
     <row r="679" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="5"/>
       <c r="B679" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C679" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D679" t="str">
         <f t="shared" si="11"/>
@@ -11986,10 +11986,10 @@
     <row r="680" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="5"/>
       <c r="B680" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C680" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D680" t="str">
         <f t="shared" si="11"/>
@@ -12004,7 +12004,7 @@
         <v>940</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D681" t="str">
         <f t="shared" si="11"/>
@@ -12019,7 +12019,7 @@
         <v>941</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D682" t="str">
         <f t="shared" si="11"/>
@@ -12034,7 +12034,7 @@
         <v>942</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D683" t="str">
         <f t="shared" si="11"/>
@@ -12049,7 +12049,7 @@
         <v>943</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D684" t="str">
         <f t="shared" si="11"/>
@@ -12064,7 +12064,7 @@
         <v>944</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D685" t="str">
         <f t="shared" si="11"/>
@@ -12079,7 +12079,7 @@
         <v>945</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D686" t="str">
         <f t="shared" si="11"/>
@@ -12094,7 +12094,7 @@
         <v>946</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D687" t="str">
         <f t="shared" si="11"/>
@@ -12109,7 +12109,7 @@
         <v>947</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D688" t="str">
         <f t="shared" si="11"/>
@@ -12124,7 +12124,7 @@
         <v>948</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D689" t="str">
         <f t="shared" si="11"/>
@@ -12139,7 +12139,7 @@
         <v>949</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D690" t="str">
         <f t="shared" si="11"/>
@@ -12154,7 +12154,7 @@
         <v>950</v>
       </c>
       <c r="C691" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D691" t="str">
         <f t="shared" si="11"/>
@@ -12169,7 +12169,7 @@
         <v>951</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D692" t="str">
         <f t="shared" si="11"/>
@@ -12184,7 +12184,7 @@
         <v>955</v>
       </c>
       <c r="C693" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D693" t="str">
         <f t="shared" si="11"/>
@@ -12199,7 +12199,7 @@
         <v>958</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D694" t="str">
         <f t="shared" si="11"/>
@@ -12208,13 +12208,13 @@
     </row>
     <row r="695" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B695" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C695" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D695" t="str">
         <f t="shared" si="11"/>
@@ -12224,10 +12224,10 @@
     <row r="696" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="5"/>
       <c r="B696" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C696" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D696" t="str">
         <f t="shared" si="11"/>
@@ -12237,10 +12237,10 @@
     <row r="697" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5"/>
       <c r="B697" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C697" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D697" t="str">
         <f t="shared" si="11"/>
@@ -12250,10 +12250,10 @@
     <row r="698" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="5"/>
       <c r="B698" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C698" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D698" t="str">
         <f t="shared" si="11"/>
@@ -12263,10 +12263,10 @@
     <row r="699" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="5"/>
       <c r="B699" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C699" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D699" t="str">
         <f t="shared" si="11"/>
@@ -12276,10 +12276,10 @@
     <row r="700" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="5"/>
       <c r="B700" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C700" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D700" t="str">
         <f t="shared" si="11"/>
@@ -12289,10 +12289,10 @@
     <row r="701" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5"/>
       <c r="B701" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C701" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D701" t="str">
         <f t="shared" si="11"/>
@@ -12302,10 +12302,10 @@
     <row r="702" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="5"/>
       <c r="B702" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C702" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D702" t="str">
         <f t="shared" si="11"/>
@@ -12315,10 +12315,10 @@
     <row r="703" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5"/>
       <c r="B703" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C703" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D703" t="str">
         <f t="shared" si="11"/>
@@ -12328,10 +12328,10 @@
     <row r="704" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="5"/>
       <c r="B704" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C704" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D704" t="str">
         <f t="shared" si="11"/>
@@ -12346,7 +12346,7 @@
         <v>977</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D705" t="str">
         <f t="shared" si="11"/>
@@ -12355,13 +12355,13 @@
     </row>
     <row r="706" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B706" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="C706" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B706" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="C706" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D706" t="str">
         <f t="shared" si="11"/>
@@ -12371,10 +12371,10 @@
     <row r="707" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5"/>
       <c r="B707" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C707" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D707" t="str">
         <f t="shared" si="11"/>
@@ -12389,7 +12389,7 @@
         <v>980</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D708" t="str">
         <f t="shared" si="11"/>
@@ -12398,13 +12398,13 @@
     </row>
     <row r="709" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B709" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C709" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B709" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="C709" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D709" t="str">
         <f t="shared" si="11"/>
@@ -12414,10 +12414,10 @@
     <row r="710" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="5"/>
       <c r="B710" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C710" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D710" t="str">
         <f t="shared" si="11"/>
@@ -12427,10 +12427,10 @@
     <row r="711" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5"/>
       <c r="B711" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C711" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D711" t="str">
         <f t="shared" si="11"/>
@@ -12440,10 +12440,10 @@
     <row r="712" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5"/>
       <c r="B712" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C712" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D712" t="str">
         <f t="shared" ref="D712:D713" si="12">CONCATENATE("'",B712,"': ","'",C712,"',")</f>
@@ -12458,7 +12458,7 @@
         <v>99</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D713" t="str">
         <f t="shared" si="12"/>
